--- a/NtierMvc/App_Data/Documents/Excel/PO_Mackarel.xlsx
+++ b/NtierMvc/App_Data/Documents/Excel/PO_Mackarel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepak\Downloads\C#\NtierMvc\App_Data\Documents\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290F7991-5BEB-41E8-B4DA-359D0B629E88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576EE1C9-46EB-415C-AAB7-375F9C435A30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,32 +55,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Quality Management System Requirements:  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Condition: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quality:  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Packing &amp; Forwarding: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mode of Payment: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment Terms: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mode of Transport: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Delivery Time: </t>
-  </si>
-  <si>
-    <t>Any Other Requirements:</t>
   </si>
   <si>
     <t xml:space="preserve">GSTIN No. </t>
@@ -111,9 +86,6 @@
       </rPr>
       <t>Applicable version of material specifications / Drawing  / Applicable  Procedure &amp; Process Requirements  /  Inspection instruction / Traceability /  Other relevant technical data.</t>
     </r>
-  </si>
-  <si>
-    <t>PO Validity  :</t>
   </si>
   <si>
     <t>Note : If we receive material after due date then penalty of 0.5 % will be deducted per day from the total amount.</t>
@@ -241,6 +213,34 @@
   </si>
   <si>
     <t>Total amount in words : (USD : #ValueInWords  only)</t>
+  </si>
+  <si>
+    <t>General Condition: #GeneralCondition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality Management System Requirements: #POQMSRequirement
+</t>
+  </si>
+  <si>
+    <t>Quality: #POQuality</t>
+  </si>
+  <si>
+    <t>Packing &amp; Forwarding: #POPackForward</t>
+  </si>
+  <si>
+    <t>Mode of Payment: #ModeOfPayment</t>
+  </si>
+  <si>
+    <t>Payment Terms: #PaymentTerms</t>
+  </si>
+  <si>
+    <t>Mode of Transport: #ModeOfTransport</t>
+  </si>
+  <si>
+    <t>Any Other Requirements: #AnyOtherRequirements</t>
+  </si>
+  <si>
+    <t>PO Validity  : #POValidity</t>
   </si>
 </sst>
 </file>
@@ -1366,8 +1366,8 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="78" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:H17"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="78" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,7 +1385,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="126" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="93" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="103" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B3" s="104"/>
       <c r="C3" s="104"/>
@@ -1421,73 +1421,73 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
       <c r="D4" s="14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="34"/>
       <c r="G4" s="16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
       <c r="D5" s="18" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E5" s="61"/>
       <c r="F5" s="15"/>
       <c r="G5" s="87" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
       <c r="D6" s="84" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E6" s="61"/>
       <c r="F6" s="15"/>
       <c r="G6" s="89" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B7" s="60"/>
       <c r="C7" s="60"/>
       <c r="D7" s="62" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E7" s="61"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B8" s="64"/>
       <c r="C8" s="64"/>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="9" spans="1:8" s="13" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>3</v>
@@ -1520,7 +1520,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
@@ -1590,16 +1590,16 @@
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
       <c r="F16" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="69" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="90" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B17" s="91"/>
       <c r="C17" s="91"/>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="19" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="100" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B19" s="101"/>
       <c r="C19" s="101"/>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="4"/>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="22" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="73" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B22" s="74"/>
       <c r="C22" s="75"/>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="23" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="4"/>
@@ -1683,7 +1683,7 @@
     </row>
     <row r="24" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="77" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B24" s="78"/>
       <c r="C24" s="38"/>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="25" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="77" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B25" s="78"/>
       <c r="C25" s="38"/>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="26" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="77" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B26" s="78"/>
       <c r="C26" s="38"/>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="27" spans="1:11" s="31" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="77" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B27" s="78"/>
       <c r="C27" s="38"/>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="28" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="77" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B28" s="78"/>
       <c r="C28" s="38"/>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="29" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="79" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B29" s="80"/>
       <c r="C29" s="81"/>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="30" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="77" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
@@ -1769,20 +1769,20 @@
     </row>
     <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D31" s="34"/>
       <c r="E31" s="34"/>
       <c r="F31" s="35"/>
       <c r="G31" s="33" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1797,23 +1797,23 @@
     </row>
     <row r="33" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="41" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B33" s="42"/>
       <c r="C33" s="42" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
       <c r="F33" s="42"/>
       <c r="G33" s="42" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H33" s="44"/>
     </row>
     <row r="34" spans="1:9" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B34" s="46"/>
       <c r="C34" s="46"/>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="35" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="88" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
@@ -1858,7 +1858,7 @@
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="52"/>
       <c r="B38" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1870,10 +1870,10 @@
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="52"/>
       <c r="B39" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>

--- a/NtierMvc/App_Data/Documents/Excel/PO_Mackarel.xlsx
+++ b/NtierMvc/App_Data/Documents/Excel/PO_Mackarel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepak\Downloads\C#\NtierMvc\App_Data\Documents\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576EE1C9-46EB-415C-AAB7-375F9C435A30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3072002-3BED-420A-B549-2C560A089784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>QTY.</t>
   </si>
@@ -241,6 +241,15 @@
   </si>
   <si>
     <t>PO Validity  : #POValidity</t>
+  </si>
+  <si>
+    <t>#RequestedBySign</t>
+  </si>
+  <si>
+    <t>#StoreSign</t>
+  </si>
+  <si>
+    <t>#ApproverSign</t>
   </si>
 </sst>
 </file>
@@ -677,7 +686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -871,18 +880,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -964,6 +961,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1366,8 +1372,8 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="78" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="78" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,40 +1390,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="126" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="95"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
     </row>
     <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="99"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="85"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
-      <c r="H3" s="86"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
@@ -1446,7 +1452,7 @@
       </c>
       <c r="E5" s="61"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="87" t="s">
+      <c r="G5" s="83" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="19"/>
@@ -1457,12 +1463,12 @@
       </c>
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="80" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="61"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="89" t="s">
+      <c r="G6" s="85" t="s">
         <v>38</v>
       </c>
       <c r="H6" s="19"/>
@@ -1598,16 +1604,16 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="92"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="88"/>
     </row>
     <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -1622,16 +1628,16 @@
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="100" t="s">
+      <c r="A19" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="101"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="102"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="98"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
@@ -1658,16 +1664,16 @@
       <c r="H21" s="72"/>
     </row>
     <row r="22" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="74"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="76"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="103"/>
     </row>
     <row r="23" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
@@ -1682,10 +1688,10 @@
       <c r="H23" s="72"/>
     </row>
     <row r="24" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="78"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
@@ -1694,10 +1700,10 @@
       <c r="H24" s="40"/>
     </row>
     <row r="25" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="78"/>
+      <c r="B25" s="74"/>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
@@ -1706,10 +1712,10 @@
       <c r="H25" s="40"/>
     </row>
     <row r="26" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="78"/>
+      <c r="B26" s="74"/>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
@@ -1718,10 +1724,10 @@
       <c r="H26" s="40"/>
     </row>
     <row r="27" spans="1:11" s="31" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="78"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39"/>
@@ -1732,10 +1738,10 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="78"/>
+      <c r="B28" s="74"/>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
       <c r="E28" s="39"/>
@@ -1744,19 +1750,19 @@
       <c r="H28" s="40"/>
     </row>
     <row r="29" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="79" t="s">
+      <c r="A29" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="80"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="83"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="79"/>
     </row>
     <row r="30" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="73" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="38"/>
@@ -1787,13 +1793,19 @@
     </row>
     <row r="32" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
-      <c r="B32" s="38"/>
+      <c r="B32" s="38" t="s">
+        <v>51</v>
+      </c>
       <c r="C32" s="38"/>
-      <c r="D32" s="39"/>
+      <c r="D32" s="39" t="s">
+        <v>52</v>
+      </c>
       <c r="E32" s="15"/>
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
-      <c r="H32" s="40"/>
+      <c r="H32" s="40" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="33" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="41" t="s">
@@ -1824,7 +1836,7 @@
       <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="84" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="48"/>
@@ -1903,7 +1915,8 @@
       <c r="I41" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A22:H22"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>

--- a/NtierMvc/App_Data/Documents/Excel/PO_Mackarel.xlsx
+++ b/NtierMvc/App_Data/Documents/Excel/PO_Mackarel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepak\Downloads\C#\NtierMvc\App_Data\Documents\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3072002-3BED-420A-B549-2C560A089784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B7DD96-E188-4E77-8908-B9A4C680A75D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$42</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>QTY.</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>#ApproverSign</t>
+  </si>
+  <si>
+    <t>#website</t>
   </si>
 </sst>
 </file>
@@ -686,7 +689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -917,6 +920,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -961,15 +982,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1370,10 +1382,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="78" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="78" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,35 +1402,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="126" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="97"/>
     </row>
     <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
       <c r="D3" s="81"/>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
@@ -1474,8 +1486,8 @@
       <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
-        <v>27</v>
+      <c r="A7" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B7" s="60"/>
       <c r="C7" s="60"/>
@@ -1492,54 +1504,56 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="1:8" s="13" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" s="13" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B10" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C10" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D10" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H10" s="25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="68"/>
-    </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="67"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -1549,7 +1563,7 @@
       <c r="G11" s="29"/>
       <c r="H11" s="68"/>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="67"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -1559,7 +1573,7 @@
       <c r="G12" s="29"/>
       <c r="H12" s="68"/>
     </row>
-    <row r="13" spans="1:8" s="30" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="67"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -1579,7 +1593,7 @@
       <c r="G14" s="29"/>
       <c r="H14" s="68"/>
     </row>
-    <row r="15" spans="1:8" s="30" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="30" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="67"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -1589,73 +1603,71 @@
       <c r="G15" s="29"/>
       <c r="H15" s="68"/>
     </row>
-    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="30" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="67"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="68"/>
+    </row>
+    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="67"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="69" t="s">
+      <c r="G17" s="29"/>
+      <c r="H17" s="69" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="86" t="s">
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="88"/>
-    </row>
-    <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="94"/>
+    </row>
+    <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="96" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="98"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="104"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="72"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="71"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1663,45 +1675,45 @@
       <c r="G21" s="4"/>
       <c r="H21" s="72"/>
     </row>
-    <row r="22" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="101" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="72"/>
+    </row>
+    <row r="23" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="102"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="103"/>
-    </row>
-    <row r="23" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="91"/>
+    </row>
+    <row r="24" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="72"/>
-    </row>
-    <row r="24" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="74"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="40"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="72"/>
     </row>
     <row r="25" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="74"/>
       <c r="C25" s="38"/>
@@ -1713,7 +1725,7 @@
     </row>
     <row r="26" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="74"/>
       <c r="C26" s="38"/>
@@ -1723,9 +1735,9 @@
       <c r="G26" s="39"/>
       <c r="H26" s="40"/>
     </row>
-    <row r="27" spans="1:11" s="31" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="74"/>
       <c r="C27" s="38"/>
@@ -1734,12 +1746,10 @@
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
       <c r="H27" s="40"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:11" s="31" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="73" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" s="74"/>
       <c r="C28" s="38"/>
@@ -1748,130 +1758,132 @@
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
       <c r="H28" s="40"/>
-    </row>
-    <row r="29" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="75" t="s">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="74"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="40"/>
+    </row>
+    <row r="30" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="76"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="79"/>
-    </row>
-    <row r="30" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="73" t="s">
+      <c r="B30" s="76"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="79"/>
+    </row>
+    <row r="31" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="40"/>
-    </row>
-    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="40"/>
+    </row>
+    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33" t="s">
+      <c r="B32" s="33"/>
+      <c r="C32" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="33" t="s">
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="36" t="s">
+      <c r="H32" s="36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="38" t="s">
+    <row r="33" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="37"/>
+      <c r="B33" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="39" t="s">
+      <c r="C33" s="38"/>
+      <c r="D33" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="40" t="s">
+      <c r="E33" s="15"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="88" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
+    <row r="34" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="37"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="88"/>
+    </row>
+    <row r="35" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="B35" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42" t="s">
+      <c r="C35" s="42"/>
+      <c r="D35" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42" t="s">
+      <c r="E35" s="43"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="44"/>
-    </row>
-    <row r="34" spans="1:9" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
+    </row>
+    <row r="36" spans="1:9" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="47"/>
-    </row>
-    <row r="35" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="84" t="s">
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="47"/>
+    </row>
+    <row r="37" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="49"/>
-    </row>
-    <row r="36" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="50"/>
-    </row>
-    <row r="37" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="50"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
-      <c r="B38" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="49"/>
+    </row>
+    <row r="38" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -1879,48 +1891,70 @@
       <c r="G38" s="6"/>
       <c r="H38" s="50"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
-      <c r="B39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>19</v>
-      </c>
+    <row r="39" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="50"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="53"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="56"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="52"/>
+      <c r="B40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="50"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="52"/>
+      <c r="B41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="50"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="53"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="56"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A18:H18"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
